--- a/tests/Unit/Service/Excel/inventory-with-empty-row.xlsx
+++ b/tests/Unit/Service/Excel/inventory-with-empty-row.xlsx
@@ -1496,9 +1496,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>22</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" t="s" s="7">
         <v>22</v>
       </c>
